--- a/TimeLog/RetroPc_Timesheet_FilipGolyszny.xlsx
+++ b/TimeLog/RetroPc_Timesheet_FilipGolyszny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\InzynieriaOprogramowania\RetroPc\TimeLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573577A7-9602-4E13-9743-B2FEA320F256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A00A146-CE29-4F1B-B442-87ED9A2CDBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
+    <workbookView xWindow="8025" yWindow="7365" windowWidth="28800" windowHeight="15345" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Zadanie</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Estymata</t>
+  </si>
+  <si>
+    <t>Zapoznanie z tematem projektu I technologią</t>
+  </si>
+  <si>
+    <t>Zapoznanie z działaniem procesora 6502</t>
+  </si>
+  <si>
+    <t>Code review implementacji procesora</t>
+  </si>
+  <si>
+    <t>Code review implementacji szyny pamięci</t>
+  </si>
+  <si>
+    <t>Pisanie testów instrukcji procesora</t>
+  </si>
+  <si>
+    <t>6-nadal</t>
   </si>
 </sst>
 </file>
@@ -449,19 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499284A-9C42-4BE7-A7B5-FC0FB6F4FD50}">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="4" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,6 +489,61 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog/RetroPc_Timesheet_FilipGolyszny.xlsx
+++ b/TimeLog/RetroPc_Timesheet_FilipGolyszny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\InzynieriaOprogramowania\RetroPc\TimeLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A00A146-CE29-4F1B-B442-87ED9A2CDBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F5842-8C56-40C0-B784-3437E61504C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="7365" windowWidth="28800" windowHeight="15345" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
+    <workbookView xWindow="-315" yWindow="2400" windowWidth="28800" windowHeight="15285" xr2:uid="{EC202389-3F07-4767-9D43-8DF0FEFE580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Zadanie</t>
   </si>
@@ -59,10 +59,37 @@
     <t>Code review implementacji szyny pamięci</t>
   </si>
   <si>
-    <t>Pisanie testów instrukcji procesora</t>
-  </si>
-  <si>
-    <t>6-nadal</t>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>testowanie działania flag</t>
+  </si>
+  <si>
+    <t>testowanie w porównaniu do poprawnego stanu</t>
+  </si>
+  <si>
+    <t>Testowanie podstawowych instrucji procesora</t>
+  </si>
+  <si>
+    <t>Testowanie instrucji branch</t>
+  </si>
+  <si>
+    <t>Zapoznanie z działaniem testów junit</t>
+  </si>
+  <si>
+    <t>Refaktor testów</t>
+  </si>
+  <si>
+    <t>Testowanie działania aplikacji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tworzenie testowego programu </t>
+  </si>
+  <si>
+    <t>Code review rozkazów procesora</t>
+  </si>
+  <si>
+    <t>Dokumentowanie testów</t>
   </si>
 </sst>
 </file>
@@ -159,8 +186,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2CC4EB5-F0C2-43BA-8794-1B46017EA1C2}" name="Table3" displayName="Table3" ref="B2:D28" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="B2:D28" xr:uid="{A2CC4EB5-F0C2-43BA-8794-1B46017EA1C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A2CC4EB5-F0C2-43BA-8794-1B46017EA1C2}" name="Table3" displayName="Table3" ref="B2:D30" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="B2:D30" xr:uid="{A2CC4EB5-F0C2-43BA-8794-1B46017EA1C2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{48F18765-D10F-45AE-B169-5531D89F75FF}" name="Zadanie"/>
     <tableColumn id="2" xr3:uid="{052F2ED0-7D33-4DA3-AAF9-99CA8D7FC8A8}" name="Estymata"/>
@@ -467,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499284A-9C42-4BE7-A7B5-FC0FB6F4FD50}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -537,13 +564,121 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="D30">
+        <f>SUM(D3:D29)</f>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
